--- a/MC.xlsx
+++ b/MC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Mouvement Cash</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>Pour essayer</t>
+  </si>
+  <si>
+    <t>13/04/2030</t>
+  </si>
+  <si>
+    <t>Geunièvre</t>
+  </si>
+  <si>
+    <t>Geunièvre woefh</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>j'avais envi</t>
   </si>
 </sst>
 </file>
@@ -151,7 +172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -270,6 +291,38 @@
         <v>22</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4978987.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
